--- a/outputs-HGR-r202/g__CAG-485.xlsx
+++ b/outputs-HGR-r202/g__CAG-485.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>s__CAG-485 sp000437495</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s__CAG-485 sp000437495</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -630,6 +640,11 @@
         <v>0.9876618316538694</v>
       </c>
       <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__CAG-485 sp000437495</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>s__CAG-485 sp000437495</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-485.xlsx
+++ b/outputs-HGR-r202/g__CAG-485.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>s__CAG-485 sp900554845</t>
+          <t>s__CAG-485 sp900554845(reject)</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>s__CAG-485 sp001701295</t>
+          <t>s__CAG-485 sp001701295(reject)</t>
         </is>
       </c>
     </row>
